--- a/data/app_flyktninger_oppsummert.xlsx
+++ b/data/app_flyktninger_oppsummert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://llano279-my.sharepoint.com/personal/oivind_lla_no/Documents/Prosjekter/p04-ukraina/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_107C7EC18F79A8D366075C52F37BD2720A5AA628" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D41D1E5-38F6-5449-A421-4FE8CDA09C65}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_107C7EC18F79A8D366075C52F37BD2720A5AA628" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFF129F3-CFA8-9B47-968F-A49450CF9344}"/>
   <bookViews>
-    <workbookView xWindow="-15560" yWindow="-19500" windowWidth="32220" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="7100" windowWidth="17840" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4495,7 +4495,7 @@
   <dimension ref="A1:AL1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P127" sqref="P127:P841"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14952,7 +14952,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2022</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -32556,7 +32556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -44397,7 +44397,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="484" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2023</v>
       </c>
@@ -60543,7 +60543,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="679" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2023</v>
       </c>
@@ -62019,7 +62019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="697" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2023</v>
       </c>
@@ -76401,7 +76401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="841" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2024</v>
       </c>
@@ -96183,7 +96183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1036" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>2024</v>
       </c>
@@ -97956,7 +97956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1054" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>2024</v>
       </c>
@@ -99825,7 +99825,8 @@
   <autoFilter ref="A1:AL1072" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Drammen"/>
+        <filter val="Kvæfjord"/>
+        <filter val="Kvænangen"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/app_flyktninger_oppsummert.xlsx
+++ b/data/app_flyktninger_oppsummert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen.sharepoint.com/sites/TEAM_Samarbeidsdesken_Project/Shared Documents/Prosjekter/p02-Ukraina/app/p02-ukraina/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_46077E68983A724F9EC4D6ADB2A6396CB122420D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5895C5-6E82-B94F-A5D0-FC86C3A3C354}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_46077E68983A724F9EC4D6ADB2A6396CB122420D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD760C90-B3A2-AD43-B64F-A030F1844C13}"/>
   <bookViews>
-    <workbookView xWindow="-17440" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17440" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4497,8 +4497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:XFD387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -99830,15 +99831,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D6442C570680934CB22BA5BC5A092BF3" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="352537810bc3c6c10f651080fe7bf026">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07626311-5b23-4afe-aa20-cc40db419bd4" xmlns:ns3="d74b2904-cc6e-4260-b9ea-005e83d891d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00128a85c890d0b2da9297bff2aa970a" ns2:_="" ns3:_="">
     <xsd:import namespace="07626311-5b23-4afe-aa20-cc40db419bd4"/>
@@ -100067,15 +100059,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F040C2-CBBB-4043-A00C-829F6FCD4641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DC429E-11F3-4D5A-B8AC-8AE626CED247}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -100092,4 +100085,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F040C2-CBBB-4043-A00C-829F6FCD4641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>